--- a/hw2/best_oper_result/selection-1.xlsx
+++ b/hw2/best_oper_result/selection-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -277,11 +277,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="342612176"/>
-        <c:axId val="342612736"/>
+        <c:axId val="122019728"/>
+        <c:axId val="167775696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342612176"/>
+        <c:axId val="122019728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -324,7 +324,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342612736"/>
+        <c:crossAx val="167775696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -332,7 +332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342612736"/>
+        <c:axId val="167775696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,7 +383,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342612176"/>
+        <c:crossAx val="122019728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,11 +603,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="279314720"/>
-        <c:axId val="339587472"/>
+        <c:axId val="47022992"/>
+        <c:axId val="47022432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="279314720"/>
+        <c:axId val="47022992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,7 +650,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339587472"/>
+        <c:crossAx val="47022432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -658,7 +658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339587472"/>
+        <c:axId val="47022432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +709,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279314720"/>
+        <c:crossAx val="47022992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2176,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2639,6 +2639,76 @@
       <c r="F25">
         <f t="shared" si="3"/>
         <v>1.7954008634637253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>SUM(B22:F22)</f>
+        <v>2126.7384999999999</v>
+      </c>
+      <c r="B26">
+        <f>$A$26*10000/B22</f>
+        <v>49877.659237648077</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:F26" si="4">$A$26*10000/C22</f>
+        <v>50143.647265974607</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>50105.831250045645</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>49795.612694221214</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>50079.148676948476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>INT(B26)</f>
+        <v>49877</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:F27" si="5">INT(C26)</f>
+        <v>50143</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>50105</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>49795</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>50079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B27</f>
+        <v>49877</v>
+      </c>
+      <c r="C28">
+        <f>B28+C27</f>
+        <v>100020</v>
+      </c>
+      <c r="D28">
+        <f>C28+D27</f>
+        <v>150125</v>
+      </c>
+      <c r="E28">
+        <f>D28+E27</f>
+        <v>199920</v>
+      </c>
+      <c r="F28">
+        <f>E28+F27</f>
+        <v>249999</v>
       </c>
     </row>
   </sheetData>
